--- a/data_year/zb/科技/按登记注册类型和行业分大中型工业企业新产品开发及生产情况/按登记注册类型分大中型工业企业新产品产值.xlsx
+++ b/data_year/zb/科技/按登记注册类型和行业分大中型工业企业新产品开发及生产情况/按登记注册类型分大中型工业企业新产品产值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,39 +553,83 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1068001.8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>128338047.6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>846514.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>461384217.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>795693.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>32086287.4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>290667158</v>
+      </c>
+      <c r="I2" t="n">
+        <v>61870783.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>45344677.8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1191570.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>206427615.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9956095.800000001</v>
+      </c>
+      <c r="N2" t="n">
+        <v>67065469.9</v>
+      </c>
       <c r="O2" t="n">
-        <v>79973698.59999999</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+        <v>736062822.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6038764.4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>182413084.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>68250989.8</v>
+      </c>
+      <c r="S2" t="n">
+        <v>29330244.6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>85120865.7</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1400838.7</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2819353.2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>116622572.6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>10290205.3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -602,7 +646,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>205625718</v>
+        <v>885826552.3</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -614,362 +658,6 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>253823290</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>322619625</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
-        <v>427637650</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>672846.4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>104378834.2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1166325.6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>306988007.5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>230944.6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>19244149.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>224162481</v>
-      </c>
-      <c r="I7" t="n">
-        <v>36692881.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>32183991.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2275313.9</v>
-      </c>
-      <c r="L7" t="n">
-        <v>156881456.8</v>
-      </c>
-      <c r="M7" t="n">
-        <v>7630331.6</v>
-      </c>
-      <c r="N7" t="n">
-        <v>44199444.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>523942671.7</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3049379.9</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>125701179.7</v>
-      </c>
-      <c r="R7" t="n">
-        <v>60073207.4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>37548733.2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>45144590.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2343076.1</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1349518.5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>87681235.09999999</v>
-      </c>
-      <c r="X7" t="n">
-        <v>6909200.4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>806697.9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>109175054.2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1256280.3</v>
-      </c>
-      <c r="E8" t="n">
-        <v>370990059.2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>410069.5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>27137175.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>252978363.8</v>
-      </c>
-      <c r="I8" t="n">
-        <v>66382427.8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>37967906.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1288907.8</v>
-      </c>
-      <c r="L8" t="n">
-        <v>155125856.6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>9633949.5</v>
-      </c>
-      <c r="N8" t="n">
-        <v>35510155</v>
-      </c>
-      <c r="O8" t="n">
-        <v>587144048.6</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5284714.9</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>140966287.5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>61028132.8</v>
-      </c>
-      <c r="S8" t="n">
-        <v>28196172.7</v>
-      </c>
-      <c r="T8" t="n">
-        <v>58637200.6</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1332957.2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1242670.9</v>
-      </c>
-      <c r="W8" t="n">
-        <v>92780093</v>
-      </c>
-      <c r="X8" t="n">
-        <v>8392141.9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1068001.8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>128338047.6</v>
-      </c>
-      <c r="D9" t="n">
-        <v>846514.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>461384217.5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>795693.4</v>
-      </c>
-      <c r="G9" t="n">
-        <v>32086287.4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>290667158</v>
-      </c>
-      <c r="I9" t="n">
-        <v>61870783.1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>45344677.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1191570.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>206427615.1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>9956095.800000001</v>
-      </c>
-      <c r="N9" t="n">
-        <v>67065469.9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>736062822.4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>6038764.4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>182413084.4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>68250989.8</v>
-      </c>
-      <c r="S9" t="n">
-        <v>29330244.6</v>
-      </c>
-      <c r="T9" t="n">
-        <v>85120865.7</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1400838.7</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2819353.2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>116622572.6</v>
-      </c>
-      <c r="X9" t="n">
-        <v>10290205.3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
-        <v>885826552.3</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
